--- a/Lab2/Testing/RezultateLab2.xlsx
+++ b/Lab2/Testing/RezultateLab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PPD\LAB\PPD-LAB\Parallel-and-Distributed-Programming\Lab2\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2FD714-0A51-4826-B279-D4B19F16B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555D906-C199-4729-831D-47FB73CDD700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>TipMatrice</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>M=10000 N=10 si n=m=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M=10 N=10000 si n=m=5; </t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="F1" sqref="F1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +458,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>5.9720000000000002E-2</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -463,17 +469,26 @@
       </c>
       <c r="H2" t="s">
         <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5.4200000000000003E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>2.8755799999999998</v>
+      </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
+      </c>
+      <c r="I3">
+        <v>0.96109999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -483,6 +498,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>97.603660000000005</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -491,50 +509,77 @@
       </c>
       <c r="H4" t="s">
         <v>13</v>
+      </c>
+      <c r="I4">
+        <v>124.1648</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>42.692050000000002</v>
+      </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
+      </c>
+      <c r="I5">
+        <v>52.072299999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>28.480039999999999</v>
+      </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
+      </c>
+      <c r="I6">
+        <v>28.74635</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>45.328299999999999</v>
+      </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7">
+        <v>18.77149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>59.516950000000001</v>
+      </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
+      </c>
+      <c r="I8">
+        <v>17.332999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -544,14 +589,20 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9">
+        <v>18.501750000000001</v>
+      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
+      </c>
+      <c r="I9">
+        <v>12.075430000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -559,12 +610,18 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10">
+        <v>19.126609999999999</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
         <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
+      </c>
+      <c r="I10">
+        <v>7.3256800000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -572,12 +629,18 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11">
+        <v>22.041509999999999</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
+      </c>
+      <c r="I11">
+        <v>5.8893500000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -585,6 +648,9 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>19.960319999999999</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s">
         <v>7</v>
@@ -592,16 +658,25 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
+      <c r="I12">
+        <v>6.35351</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="C13">
+        <v>40.449170000000002</v>
+      </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
+      </c>
+      <c r="I13">
+        <v>7.8152699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,6 +686,9 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>19.285789999999999</v>
+      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
@@ -619,12 +697,18 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
+      </c>
+      <c r="I14">
+        <v>12.97912</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15">
+        <v>16.21547</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
         <v>6</v>
@@ -632,11 +716,17 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
+      <c r="I15">
+        <v>8.1303900000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
+      <c r="C16">
+        <v>14.2248</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s">
         <v>5</v>
@@ -644,30 +734,45 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>5.9087199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17">
+        <v>19.686060000000001</v>
+      </c>
       <c r="G17" t="s">
         <v>7</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>6.0173500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>8</v>
       </c>
+      <c r="C18">
+        <v>31.169989999999999</v>
+      </c>
       <c r="G18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>6.0612300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
